--- a/master.xlsx
+++ b/master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="tone2" sheetId="9" r:id="rId4"/>
     <sheet name="tone3" sheetId="10" r:id="rId5"/>
     <sheet name="tone4" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -284,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -296,6 +297,18 @@
     <font>
       <i/>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -336,8 +349,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -363,7 +378,9 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2049,7 +2066,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E25"/>
+      <selection activeCell="B1" sqref="B1:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2714,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3701,7 +3718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39:N59"/>
     </sheetView>
   </sheetViews>
@@ -5340,4 +5357,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>